--- a/final_data_pipeline/output/322120_sulfite_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322120_sulfite_elec_nowhp.xlsx
@@ -522,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>-1.226851851851833</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -537,10 +537,10 @@
         <v>30763.95016640444</v>
       </c>
       <c r="N2">
-        <v>1.280428571428571</v>
+        <v>1.203236793039155</v>
       </c>
       <c r="O2">
-        <v>1.342878787878788</v>
+        <v>1.257328254301852</v>
       </c>
       <c r="P2">
         <v>3.845493770800556</v>
@@ -575,7 +575,7 @@
         <v>21</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -590,10 +590,10 @@
         <v>2157893.23066206</v>
       </c>
       <c r="N3">
-        <v>1.280428571428571</v>
+        <v>1.349021684597804</v>
       </c>
       <c r="O3">
-        <v>1.342878787878788</v>
+        <v>1.419425825968325</v>
       </c>
       <c r="P3">
         <v>269.7366538327575</v>
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="J4">
         <v>8000</v>
